--- a/tp6-csp/code/backtracking.xlsx
+++ b/tp6-csp/code/backtracking.xlsx
@@ -495,7 +495,7 @@
         <v>876</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0.0009968280792236328</v>
       </c>
     </row>
     <row r="4">
@@ -533,7 +533,7 @@
         <v>3066</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001995086669921875</v>
+        <v>0.001994609832763672</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>20280</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01096963882446289</v>
+        <v>0.0109708309173584</v>
       </c>
     </row>
   </sheetData>
